--- a/inputs/xlsx/planning.xlsx
+++ b/inputs/xlsx/planning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricmaigrot/Documents/GitHub/Bot-Discord/inputs/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CF4827-E531-8E4D-8CB5-BDC219B6F53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866EBF4-B3F1-2E4B-A9A3-92FAB2E05417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{472A5A7D-52A0-C045-911F-E6E254B4C803}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -98,13 +98,40 @@
     <t>Devinez la race #7</t>
   </si>
   <si>
-    <t>Thème à définir</t>
-  </si>
-  <si>
     <t>Oiseau</t>
   </si>
   <si>
     <t>NAC</t>
+  </si>
+  <si>
+    <t>Les oiseaux</t>
+  </si>
+  <si>
+    <t>Devinez la race #8</t>
+  </si>
+  <si>
+    <t>Devinez la race #9</t>
+  </si>
+  <si>
+    <t>Devinez la race #10</t>
+  </si>
+  <si>
+    <t>Devinez la race #11</t>
+  </si>
+  <si>
+    <t>Devinez la race #12</t>
+  </si>
+  <si>
+    <t>Les hamsters</t>
+  </si>
+  <si>
+    <t>Les chiens catégorisés</t>
+  </si>
+  <si>
+    <t>Les sports canins</t>
+  </si>
+  <si>
+    <t>Les animaux travailleurs</t>
   </si>
 </sst>
 </file>
@@ -112,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +151,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96014DEC-6390-244B-857E-B52162E95258}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:C16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +570,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>A4+7</f>
+        <f t="shared" ref="A6:A26" si="0">A4+7</f>
         <v>44289</v>
       </c>
       <c r="B6" t="s">
@@ -547,7 +582,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>A5+7</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="B7" t="s">
@@ -559,19 +594,19 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>A6+7</f>
+        <f t="shared" si="0"/>
         <v>44296</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>A7+7</f>
+        <f t="shared" si="0"/>
         <v>44300</v>
       </c>
       <c r="B9" t="s">
@@ -583,7 +618,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>A8+7</f>
+        <f t="shared" si="0"/>
         <v>44303</v>
       </c>
       <c r="B10" t="s">
@@ -595,7 +630,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>A9+7</f>
+        <f t="shared" si="0"/>
         <v>44307</v>
       </c>
       <c r="B11" t="s">
@@ -607,7 +642,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>A10+7</f>
+        <f t="shared" si="0"/>
         <v>44310</v>
       </c>
       <c r="B12" t="s">
@@ -619,50 +654,170 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>A11+7</f>
+        <f t="shared" si="0"/>
         <v>44314</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>A12+7</f>
+        <f t="shared" si="0"/>
         <v>44317</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>A13+7</f>
+        <f t="shared" si="0"/>
         <v>44321</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>A14+7</f>
+        <f t="shared" si="0"/>
         <v>44324</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>44328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44335</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44338</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44342</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44345</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44349</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>44356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>44359</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
